--- a/biology/Zoologie/Baicalellia/Baicalellia.xlsx
+++ b/biology/Zoologie/Baicalellia/Baicalellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baicalellia est un genre de vers plats aquatiques de la famille des Provorticidae et de l'ordre des Rhabdocoela.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une kleptoplastie a été observée chez une espèce, Baicalellia solaris : ce ver ingurgite des plastes de diatomées et bénéficie pendant plusieurs semaines de la photosynthèse de ces organites[1]. L'algue est ainsi endosymbiote du ver plat.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une kleptoplastie a été observée chez une espèce, Baicalellia solaris : ce ver ingurgite des plastes de diatomées et bénéficie pendant plusieurs semaines de la photosynthèse de ces organites. L'algue est ainsi endosymbiote du ver plat.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Baicalellia ne comprend aucune espèce terrestre[2]. Il est constitué d'espèces marines[3] qui vivent dans des écosystèmes benthiques[4], et d'espèces — comme B. subsalina — qui vivent dans des eaux douces ou saumâtres[2]. Nicolaï Nasonov, proposant du genre, décrit huit de ces membres à partir d'observations du Lac Baïkal qui est une réserve profonde d'eau douce. Bien que toutes les espèces soient aquatiques, certaines d'entre elles ne sont pas décrites comme vivantes dans tous les milieux aquatiques (eaux marines, saumâtres, douces), à l'instar de B. rectis et B. sewardensis.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Baicalellia ne comprend aucune espèce terrestre. Il est constitué d'espèces marines qui vivent dans des écosystèmes benthiques, et d'espèces — comme B. subsalina — qui vivent dans des eaux douces ou saumâtres. Nicolaï Nasonov, proposant du genre, décrit huit de ces membres à partir d'observations du Lac Baïkal qui est une réserve profonde d'eau douce. Bien que toutes les espèces soient aquatiques, certaines d'entre elles ne sont pas décrites comme vivantes dans tous les milieux aquatiques (eaux marines, saumâtres, douces), à l'instar de B. rectis et B. sewardensis.
 </t>
         </is>
       </c>
@@ -599,15 +617,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Baicalellia Nasonov, 1930[5].
-Synonymes de Baicalellia
-Baicalellia a pour synonyme[5] les genres suivants :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Baicalellia Nasonov, 1930.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baicalellia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baicalellia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes de Baicalellia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baicalellia a pour synonyme les genres suivants :
 Canetellia Ax, 1956
 Coronopharynx Luther, 1962
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (22 décembre 2023)[5], le genre Baicalellia contient les espèces suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baicalellia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baicalellia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (22 décembre 2023), le genre Baicalellia contient les espèces suivantes :
 Baicalellia albicauda Nasonov, 1930
 Baicalellia anchoragensis Ax &amp; Armonies, 1990
 Baicalellia baicali Nasonov, 1930
@@ -631,8 +721,43 @@
 Baicalellia solaris Stephenson, Van Steenkiste &amp; Leander, 2019
 Baicalellia strelzovi Joffe &amp; Selivanova, 1988
 Baicalellia subsalina Ax, 1954
-Espèce synonyme
-L'espèce Baicalellia brevitubus est acceptée comme Baicalellia brevituba (Luther, 1918) Nasonov, 1930. Le mauvais épithète choisi par Nasonov (1930), Karling (1940) et Axe (1960) a été correctement ajusté par les auteurs ultérieurs (par exemple par Luther, 1962)[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baicalellia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baicalellia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèce synonyme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Baicalellia brevitubus est acceptée comme Baicalellia brevituba (Luther, 1918) Nasonov, 1930. Le mauvais épithète choisi par Nasonov (1930), Karling (1940) et Axe (1960) a été correctement ajusté par les auteurs ultérieurs (par exemple par Luther, 1962).
 </t>
         </is>
       </c>
